--- a/04-abril/2_TETTAMANTI/TETTAMANTI.xlsx
+++ b/04-abril/2_TETTAMANTI/TETTAMANTI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\marzo\2_TETTAMANTI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\2_TETTAMANTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60735EB8-0F20-4E83-B2FB-669FABE22D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BC7527-74C7-4D29-B06D-AE97E21AE525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27495" yWindow="1965" windowWidth="21600" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>NO REM</t>
   </si>
   <si>
-    <t>MARZO 2025</t>
+    <t>ABRIL 2025</t>
   </si>
 </sst>
 </file>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,32 +576,32 @@
         <v>2</v>
       </c>
       <c r="B7" s="8">
-        <v>563096.9</v>
+        <v>559416.5</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
       </c>
       <c r="D7" s="8">
         <f>SUM(B7:C7)</f>
-        <v>563096.9</v>
+        <v>559416.5</v>
       </c>
       <c r="E7" s="10">
-        <v>16993.5</v>
+        <v>24750.89</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
       </c>
       <c r="G7" s="10">
         <f>+E7+F7</f>
-        <v>16993.5</v>
+        <v>24750.89</v>
       </c>
       <c r="H7" s="6">
         <f>+D7+G7</f>
-        <v>580090.4</v>
+        <v>584167.39</v>
       </c>
       <c r="I7" s="6">
         <f>+H7*2</f>
-        <v>1160180.8</v>
+        <v>1168334.78</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
